--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_15-55.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_15-55.xlsx
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>5:0</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>28:0</t>
   </si>
   <si>
     <t>Thursday, 15 January, 2026 3:55 PM</t>
@@ -2142,38 +2148,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" ht="26.25" customHeight="1">
-      <c r="K55" s="10">
-        <v>2247.6799999999998</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="11">
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
         <v>76</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c t="s" r="F56" s="12">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
         <v>77</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c t="s" r="I56" s="14">
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>45</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="K56" s="10">
+        <v>2292.6799999999998</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="11">
         <v>78</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c t="s" r="F57" s="12">
+        <v>79</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c t="s" r="I57" s="14">
+        <v>80</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="167">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2334,10 +2366,13 @@
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:N57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
